--- a/power bi/Connected Office Dataset.xlsx
+++ b/power bi/Connected Office Dataset.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25830"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{712B8AB3-5EBE-4888-8C6C-FF4084531D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mega\OneDrive\Documents\3 de jaar\323\project 5\CMPG-323--Project-5-34329625\power bi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13584" windowHeight="5688" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Zone" sheetId="1" r:id="rId1"/>
@@ -13,7 +17,7 @@
     <sheet name="Category" sheetId="3" r:id="rId3"/>
     <sheet name="Sub-Category" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="96">
   <si>
     <t>ID</t>
   </si>
@@ -316,13 +320,16 @@
   </si>
   <si>
     <t>Measuring speed of moving object</t>
+  </si>
+  <si>
+    <t>C8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +354,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -365,7 +373,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -460,11 +468,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -478,6 +497,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,21 +811,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -816,7 +836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -827,7 +847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -838,7 +858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -849,7 +869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -860,7 +880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -871,7 +891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -882,7 +902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -893,7 +913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -904,7 +924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -921,25 +941,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08439157-EFCA-47CB-8108-F53748A39E5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -962,7 +982,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -985,7 +1005,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
@@ -1008,7 +1028,7 @@
         <v>44229</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -1031,7 +1051,7 @@
         <v>44541</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>47</v>
       </c>
@@ -1054,7 +1074,7 @@
         <v>44641</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>50</v>
       </c>
@@ -1077,7 +1097,7 @@
         <v>44641</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
@@ -1100,7 +1120,7 @@
         <v>44333</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>55</v>
       </c>
@@ -1123,7 +1143,7 @@
         <v>44409</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>56</v>
       </c>
@@ -1146,7 +1166,7 @@
         <v>44434</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>58</v>
       </c>
@@ -1175,19 +1195,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31A4267-E70A-4E9F-9C7A-6414D4287864}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1198,7 +1220,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>62</v>
       </c>
@@ -1209,7 +1231,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>65</v>
       </c>
@@ -1220,7 +1242,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>68</v>
       </c>
@@ -1231,7 +1253,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>71</v>
       </c>
@@ -1242,7 +1264,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>74</v>
       </c>
@@ -1253,7 +1275,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>77</v>
       </c>
@@ -1264,7 +1286,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>80</v>
       </c>
@@ -1273,6 +1295,11 @@
       </c>
       <c r="C8" s="7" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1281,22 +1308,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC903D32-5F9E-4786-89D6-996B7E75E220}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +1337,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>85</v>
       </c>
@@ -1324,7 +1351,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>87</v>
       </c>
@@ -1338,7 +1365,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>89</v>
       </c>
@@ -1352,7 +1379,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>91</v>
       </c>
@@ -1366,7 +1393,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>93</v>
       </c>
@@ -1609,6 +1636,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="7a090801-4708-43a5-9598-e4e2166c002c">
@@ -1619,23 +1655,40 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B6EE518-5DC1-4AFD-B150-7E05CC0C76D1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B6EE518-5DC1-4AFD-B150-7E05CC0C76D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7a090801-4708-43a5-9598-e4e2166c002c"/>
+    <ds:schemaRef ds:uri="4f4a8c57-659f-4264-b765-bd165a88863b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B45281D-5D5A-4087-8014-4B4FA16E83A5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A227DC9-4D6F-4F55-89DE-623758C7FB72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A227DC9-4D6F-4F55-89DE-623758C7FB72}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B45281D-5D5A-4087-8014-4B4FA16E83A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7a090801-4708-43a5-9598-e4e2166c002c"/>
+    <ds:schemaRef ds:uri="4f4a8c57-659f-4264-b765-bd165a88863b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>